--- a/FO22_EVAL_PROVIONALES_V8.xlsx
+++ b/FO22_EVAL_PROVIONALES_V8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan David Murcia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\var\www\html\evaluacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3839D15E-776F-481C-9F93-A773D4E99334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC41B56-5FE6-4EA8-895B-0462BE40AF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="588" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="26" r:id="rId1"/>
@@ -19,6 +19,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">FINAL!$A$1:$AO$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1582,172 +1593,319 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1761,20 +1919,14 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1845,283 +1997,142 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3124,8 +3135,8 @@
   </sheetPr>
   <dimension ref="A1:BK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="BA12" sqref="BA12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH40:AO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3146,92 +3157,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A1" s="168"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-      <c r="Q1" s="169"/>
-      <c r="R1" s="169"/>
-      <c r="S1" s="169"/>
-      <c r="T1" s="169"/>
-      <c r="U1" s="169"/>
-      <c r="V1" s="169"/>
-      <c r="W1" s="169"/>
-      <c r="X1" s="169"/>
-      <c r="Y1" s="169"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="169"/>
-      <c r="AB1" s="169"/>
-      <c r="AC1" s="169"/>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="169"/>
-      <c r="AG1" s="172" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="173"/>
-      <c r="AK1" s="173"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="174"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="34"/>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="176"/>
-      <c r="AJ2" s="176"/>
-      <c r="AK2" s="176"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="176"/>
-      <c r="AO2" s="177"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="37"/>
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
       <c r="BD2" s="8"/>
@@ -3244,47 +3255,47 @@
       <c r="BK2" s="8"/>
     </row>
     <row r="3" spans="1:63" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="175"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176"/>
-      <c r="AO3" s="177"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="37"/>
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
@@ -3308,47 +3319,47 @@
       <c r="BK3" s="8"/>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A4" s="170"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
-      <c r="Y4" s="171"/>
-      <c r="Z4" s="171"/>
-      <c r="AA4" s="171"/>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="171"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="175"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="177"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="37"/>
       <c r="BB4" s="8"/>
       <c r="BC4" s="8"/>
       <c r="BD4" s="8"/>
@@ -3361,47 +3372,47 @@
       <c r="BK4" s="8"/>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A5" s="170"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
-      <c r="N5" s="171"/>
-      <c r="O5" s="171"/>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="171"/>
-      <c r="U5" s="171"/>
-      <c r="V5" s="171"/>
-      <c r="W5" s="171"/>
-      <c r="X5" s="171"/>
-      <c r="Y5" s="171"/>
-      <c r="Z5" s="171"/>
-      <c r="AA5" s="171"/>
-      <c r="AB5" s="171"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="175"/>
-      <c r="AH5" s="176"/>
-      <c r="AI5" s="176"/>
-      <c r="AJ5" s="176"/>
-      <c r="AK5" s="176"/>
-      <c r="AL5" s="176"/>
-      <c r="AM5" s="176"/>
-      <c r="AN5" s="176"/>
-      <c r="AO5" s="177"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="31"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="31"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="37"/>
       <c r="BB5" s="8"/>
       <c r="BC5" s="8"/>
       <c r="BD5" s="8"/>
@@ -3414,549 +3425,549 @@
       <c r="BK5" s="8"/>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A6" s="170"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="171"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="171"/>
-      <c r="AE6" s="171"/>
-      <c r="AF6" s="171"/>
-      <c r="AG6" s="175"/>
-      <c r="AH6" s="176"/>
-      <c r="AI6" s="176"/>
-      <c r="AJ6" s="176"/>
-      <c r="AK6" s="176"/>
-      <c r="AL6" s="176"/>
-      <c r="AM6" s="176"/>
-      <c r="AN6" s="176"/>
-      <c r="AO6" s="177"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="37"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A7" s="170"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="171"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
-      <c r="U7" s="171"/>
-      <c r="V7" s="171"/>
-      <c r="W7" s="171"/>
-      <c r="X7" s="171"/>
-      <c r="Y7" s="171"/>
-      <c r="Z7" s="171"/>
-      <c r="AA7" s="171"/>
-      <c r="AB7" s="171"/>
-      <c r="AC7" s="171"/>
-      <c r="AD7" s="171"/>
-      <c r="AE7" s="171"/>
-      <c r="AF7" s="171"/>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="176"/>
-      <c r="AI7" s="176"/>
-      <c r="AJ7" s="176"/>
-      <c r="AK7" s="176"/>
-      <c r="AL7" s="176"/>
-      <c r="AM7" s="176"/>
-      <c r="AN7" s="176"/>
-      <c r="AO7" s="177"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="37"/>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="171"/>
-      <c r="L8" s="171"/>
-      <c r="M8" s="171"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
-      <c r="U8" s="171"/>
-      <c r="V8" s="171"/>
-      <c r="W8" s="171"/>
-      <c r="X8" s="171"/>
-      <c r="Y8" s="171"/>
-      <c r="Z8" s="171"/>
-      <c r="AA8" s="171"/>
-      <c r="AB8" s="171"/>
-      <c r="AC8" s="171"/>
-      <c r="AD8" s="171"/>
-      <c r="AE8" s="171"/>
-      <c r="AF8" s="171"/>
-      <c r="AG8" s="178"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="179"/>
-      <c r="AJ8" s="179"/>
-      <c r="AK8" s="179"/>
-      <c r="AL8" s="179"/>
-      <c r="AM8" s="179"/>
-      <c r="AN8" s="179"/>
-      <c r="AO8" s="180"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="39"/>
+      <c r="AL8" s="39"/>
+      <c r="AM8" s="39"/>
+      <c r="AN8" s="39"/>
+      <c r="AO8" s="40"/>
     </row>
     <row r="9" spans="1:63" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="182"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="181" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="182"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="182"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="182"/>
-      <c r="AF9" s="184"/>
-      <c r="AG9" s="181" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AH9" s="182"/>
-      <c r="AI9" s="182"/>
-      <c r="AJ9" s="182"/>
-      <c r="AK9" s="182"/>
-      <c r="AL9" s="182"/>
-      <c r="AM9" s="182"/>
-      <c r="AN9" s="182"/>
-      <c r="AO9" s="183"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="43"/>
     </row>
     <row r="10" spans="1:63" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="187"/>
-      <c r="P10" s="187"/>
-      <c r="Q10" s="187"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="187"/>
-      <c r="AJ10" s="187"/>
-      <c r="AK10" s="187"/>
-      <c r="AL10" s="187"/>
-      <c r="AM10" s="187"/>
-      <c r="AN10" s="187"/>
-      <c r="AO10" s="188"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="48"/>
     </row>
     <row r="11" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="190"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="190"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="190"/>
-      <c r="R11" s="190"/>
-      <c r="S11" s="190"/>
-      <c r="T11" s="190"/>
-      <c r="U11" s="190"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="190"/>
-      <c r="X11" s="190"/>
-      <c r="Y11" s="190"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="190"/>
-      <c r="AD11" s="190"/>
-      <c r="AE11" s="190"/>
-      <c r="AF11" s="190"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="190"/>
-      <c r="AJ11" s="190"/>
-      <c r="AK11" s="190"/>
-      <c r="AL11" s="190"/>
-      <c r="AM11" s="190"/>
-      <c r="AN11" s="190"/>
-      <c r="AO11" s="191"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="50"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="50"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="50"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="50"/>
+      <c r="AL11" s="50"/>
+      <c r="AM11" s="50"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="51"/>
       <c r="AP11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:63" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="192"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="68" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68" t="s">
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="68"/>
-      <c r="AG12" s="194" t="s">
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="AH12" s="194"/>
-      <c r="AI12" s="194"/>
-      <c r="AJ12" s="194"/>
-      <c r="AK12" s="194"/>
-      <c r="AL12" s="194"/>
-      <c r="AM12" s="194"/>
-      <c r="AN12" s="194"/>
-      <c r="AO12" s="195"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="56"/>
     </row>
     <row r="13" spans="1:63" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="152"/>
-      <c r="W13" s="152"/>
-      <c r="X13" s="152"/>
-      <c r="Y13" s="152"/>
-      <c r="Z13" s="152"/>
-      <c r="AA13" s="152"/>
-      <c r="AB13" s="152"/>
-      <c r="AC13" s="152"/>
-      <c r="AD13" s="152"/>
-      <c r="AE13" s="152"/>
-      <c r="AF13" s="152"/>
-      <c r="AG13" s="152"/>
-      <c r="AH13" s="152"/>
-      <c r="AI13" s="152"/>
-      <c r="AJ13" s="152"/>
-      <c r="AK13" s="152"/>
-      <c r="AL13" s="152"/>
-      <c r="AM13" s="152"/>
-      <c r="AN13" s="152"/>
-      <c r="AO13" s="153"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="27"/>
     </row>
     <row r="14" spans="1:63" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="150"/>
-      <c r="O14" s="150"/>
-      <c r="P14" s="150"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="150"/>
-      <c r="S14" s="150"/>
-      <c r="T14" s="150"/>
-      <c r="U14" s="150"/>
-      <c r="V14" s="152"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="152"/>
-      <c r="AO14" s="153"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="27"/>
     </row>
     <row r="15" spans="1:63" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="150"/>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150"/>
-      <c r="U15" s="150"/>
-      <c r="V15" s="151"/>
-      <c r="W15" s="151"/>
-      <c r="X15" s="151"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="151"/>
-      <c r="AA15" s="151"/>
-      <c r="AB15" s="151"/>
-      <c r="AC15" s="151"/>
-      <c r="AD15" s="151"/>
-      <c r="AE15" s="151"/>
-      <c r="AF15" s="151"/>
-      <c r="AG15" s="152"/>
-      <c r="AH15" s="152"/>
-      <c r="AI15" s="152"/>
-      <c r="AJ15" s="152"/>
-      <c r="AK15" s="152"/>
-      <c r="AL15" s="152"/>
-      <c r="AM15" s="152"/>
-      <c r="AN15" s="152"/>
-      <c r="AO15" s="153"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="27"/>
     </row>
     <row r="16" spans="1:63" s="11" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="156"/>
-      <c r="O16" s="156"/>
-      <c r="P16" s="156"/>
-      <c r="Q16" s="156"/>
-      <c r="R16" s="156"/>
-      <c r="S16" s="156"/>
-      <c r="T16" s="156"/>
-      <c r="U16" s="156"/>
-      <c r="V16" s="166"/>
-      <c r="W16" s="166"/>
-      <c r="X16" s="166"/>
-      <c r="Y16" s="166"/>
-      <c r="Z16" s="166"/>
-      <c r="AA16" s="166"/>
-      <c r="AB16" s="166"/>
-      <c r="AC16" s="166"/>
-      <c r="AD16" s="166"/>
-      <c r="AE16" s="166"/>
-      <c r="AF16" s="166"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="160"/>
-      <c r="AN16" s="160"/>
-      <c r="AO16" s="161"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="60"/>
+      <c r="S16" s="60"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="60"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="70"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="70"/>
+      <c r="AG16" s="64"/>
+      <c r="AH16" s="64"/>
+      <c r="AI16" s="64"/>
+      <c r="AJ16" s="64"/>
+      <c r="AK16" s="64"/>
+      <c r="AL16" s="64"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="65"/>
     </row>
     <row r="17" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="75"/>
-      <c r="AL17" s="75"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="76"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="72"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="72"/>
+      <c r="AC17" s="72"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="73"/>
     </row>
     <row r="18" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="106" t="s">
@@ -4004,476 +4015,486 @@
       <c r="AO18" s="21"/>
     </row>
     <row r="19" spans="1:54" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="125" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="126"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="126"/>
-      <c r="R19" s="126"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="126"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="167" t="s">
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="75"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="167"/>
-      <c r="Z19" s="167"/>
-      <c r="AA19" s="167"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="167"/>
-      <c r="AD19" s="167"/>
-      <c r="AE19" s="167" t="s">
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="AF19" s="167"/>
-      <c r="AG19" s="167"/>
-      <c r="AH19" s="167"/>
-      <c r="AI19" s="118" t="s">
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="119"/>
-      <c r="AL19" s="119"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="120"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="118"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="118"/>
+      <c r="AN19" s="118"/>
+      <c r="AO19" s="119"/>
     </row>
     <row r="20" spans="1:54" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="124"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
-      <c r="O20" s="129"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="129"/>
-      <c r="R20" s="129"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="129"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="129"/>
-      <c r="W20" s="130"/>
-      <c r="X20" s="167"/>
-      <c r="Y20" s="167"/>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="167"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="167"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="167"/>
-      <c r="AG20" s="167"/>
-      <c r="AH20" s="167"/>
-      <c r="AI20" s="121" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="AJ20" s="121"/>
-      <c r="AK20" s="121"/>
-      <c r="AL20" s="121" t="s">
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="AM20" s="121"/>
-      <c r="AN20" s="121"/>
-      <c r="AO20" s="122"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="120"/>
+      <c r="AO20" s="121"/>
     </row>
     <row r="21" spans="1:54" s="11" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="83"/>
-      <c r="Y21" s="83"/>
-      <c r="Z21" s="83"/>
-      <c r="AA21" s="83"/>
-      <c r="AB21" s="83"/>
-      <c r="AC21" s="83"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="113"/>
-      <c r="AG21" s="113"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="80">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+      <c r="R21" s="80"/>
+      <c r="S21" s="80"/>
+      <c r="T21" s="80"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="80"/>
+      <c r="W21" s="80"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="85"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="81">
         <v>20</v>
       </c>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="80"/>
-      <c r="AM21" s="81"/>
-      <c r="AN21" s="81"/>
-      <c r="AO21" s="84"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="81">
+        <v>20</v>
+      </c>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="83"/>
     </row>
     <row r="22" spans="1:54" s="11" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="83"/>
-      <c r="Y22" s="83"/>
-      <c r="Z22" s="83"/>
-      <c r="AA22" s="83"/>
-      <c r="AB22" s="83"/>
-      <c r="AC22" s="83"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="113"/>
-      <c r="AG22" s="113"/>
-      <c r="AH22" s="114"/>
-      <c r="AI22" s="80">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="85"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="81">
         <v>20</v>
       </c>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="82"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="84"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="124"/>
+      <c r="AL22" s="81">
+        <v>20</v>
+      </c>
+      <c r="AM22" s="82"/>
+      <c r="AN22" s="82"/>
+      <c r="AO22" s="83"/>
     </row>
     <row r="23" spans="1:54" s="11" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="113"/>
-      <c r="AG23" s="113"/>
-      <c r="AH23" s="114"/>
-      <c r="AI23" s="80">
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="85"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="81">
         <v>20</v>
       </c>
-      <c r="AJ23" s="81"/>
-      <c r="AK23" s="82"/>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="81"/>
-      <c r="AN23" s="81"/>
-      <c r="AO23" s="84"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="124"/>
+      <c r="AL23" s="81">
+        <v>20</v>
+      </c>
+      <c r="AM23" s="82"/>
+      <c r="AN23" s="82"/>
+      <c r="AO23" s="83"/>
     </row>
     <row r="24" spans="1:54" s="11" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="113"/>
-      <c r="AG24" s="113"/>
-      <c r="AH24" s="114"/>
-      <c r="AI24" s="80">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="85"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="81">
         <v>20</v>
       </c>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="82"/>
-      <c r="AL24" s="80"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="84"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="124"/>
+      <c r="AL24" s="81">
+        <v>20</v>
+      </c>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="83"/>
     </row>
     <row r="25" spans="1:54" s="11" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
-      <c r="Z25" s="83"/>
-      <c r="AA25" s="83"/>
-      <c r="AB25" s="83"/>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="83"/>
-      <c r="AE25" s="112"/>
-      <c r="AF25" s="113"/>
-      <c r="AG25" s="113"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="80">
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
+      <c r="Q25" s="80"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="81">
         <v>20</v>
       </c>
-      <c r="AJ25" s="81"/>
-      <c r="AK25" s="82"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="81"/>
-      <c r="AN25" s="81"/>
-      <c r="AO25" s="84"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="124"/>
+      <c r="AL25" s="81">
+        <v>20</v>
+      </c>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="83"/>
       <c r="AP25" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:54" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="184" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="102"/>
-      <c r="AJ26" s="103"/>
-      <c r="AK26" s="104"/>
-      <c r="AL26" s="85">
+      <c r="B26" s="185"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="185"/>
+      <c r="R26" s="185"/>
+      <c r="S26" s="185"/>
+      <c r="T26" s="185"/>
+      <c r="U26" s="185"/>
+      <c r="V26" s="185"/>
+      <c r="W26" s="185"/>
+      <c r="X26" s="185"/>
+      <c r="Y26" s="185"/>
+      <c r="Z26" s="185"/>
+      <c r="AA26" s="185"/>
+      <c r="AB26" s="185"/>
+      <c r="AC26" s="185"/>
+      <c r="AD26" s="185"/>
+      <c r="AE26" s="185"/>
+      <c r="AF26" s="185"/>
+      <c r="AG26" s="185"/>
+      <c r="AH26" s="186"/>
+      <c r="AI26" s="148"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="131">
         <f>SUM(AL21:AO25)</f>
-        <v>0</v>
-      </c>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="86"/>
-      <c r="AO26" s="87"/>
+        <v>100</v>
+      </c>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="133"/>
     </row>
     <row r="27" spans="1:54" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="158"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="158"/>
-      <c r="O27" s="158"/>
-      <c r="P27" s="158"/>
-      <c r="Q27" s="158"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="158"/>
-      <c r="AF27" s="158"/>
-      <c r="AG27" s="158"/>
-      <c r="AH27" s="158"/>
-      <c r="AI27" s="158"/>
-      <c r="AJ27" s="158"/>
-      <c r="AK27" s="158"/>
-      <c r="AL27" s="158"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="158"/>
-      <c r="AO27" s="159"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="63"/>
     </row>
     <row r="28" spans="1:54" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="162"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="164" t="s">
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
-      <c r="U28" s="164"/>
-      <c r="V28" s="164" t="s">
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="W28" s="164"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="164"/>
-      <c r="AA28" s="164"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="164"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="164"/>
-      <c r="AF28" s="164" t="s">
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="68"/>
+      <c r="AE28" s="68"/>
+      <c r="AF28" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AG28" s="164"/>
-      <c r="AH28" s="164"/>
-      <c r="AI28" s="164"/>
-      <c r="AJ28" s="164"/>
-      <c r="AK28" s="164"/>
-      <c r="AL28" s="164"/>
-      <c r="AM28" s="164"/>
-      <c r="AN28" s="164"/>
-      <c r="AO28" s="165"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="68"/>
+      <c r="AK28" s="68"/>
+      <c r="AL28" s="68"/>
+      <c r="AM28" s="68"/>
+      <c r="AN28" s="68"/>
+      <c r="AO28" s="69"/>
       <c r="AT28" s="6" t="s">
         <v>24</v>
       </c>
@@ -4487,49 +4508,49 @@
       <c r="BB28" s="6"/>
     </row>
     <row r="29" spans="1:54" s="11" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="23"/>
-      <c r="AH29" s="23"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="23"/>
-      <c r="AK29" s="23"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="23"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="34"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="80"/>
+      <c r="AD29" s="80"/>
+      <c r="AE29" s="80"/>
+      <c r="AF29" s="80"/>
+      <c r="AG29" s="80"/>
+      <c r="AH29" s="80"/>
+      <c r="AI29" s="80"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="80"/>
+      <c r="AL29" s="80"/>
+      <c r="AM29" s="80"/>
+      <c r="AN29" s="80"/>
+      <c r="AO29" s="128"/>
       <c r="AT29" s="6" t="s">
         <v>27</v>
       </c>
@@ -4543,49 +4564,49 @@
       <c r="BB29" s="6"/>
     </row>
     <row r="30" spans="1:54" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
-      <c r="AC30" s="23"/>
-      <c r="AD30" s="23"/>
-      <c r="AE30" s="23"/>
-      <c r="AF30" s="23"/>
-      <c r="AG30" s="23"/>
-      <c r="AH30" s="23"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="23"/>
-      <c r="AK30" s="23"/>
-      <c r="AL30" s="23"/>
-      <c r="AM30" s="23"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="34"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="128"/>
       <c r="AT30" s="6" t="s">
         <v>28</v>
       </c>
@@ -4599,49 +4620,49 @@
       <c r="BB30" s="6"/>
     </row>
     <row r="31" spans="1:54" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="37"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="37"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="37"/>
-      <c r="AI31" s="37"/>
-      <c r="AJ31" s="37"/>
-      <c r="AK31" s="37"/>
-      <c r="AL31" s="37"/>
-      <c r="AM31" s="37"/>
-      <c r="AN31" s="37"/>
-      <c r="AO31" s="38"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="194"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="194"/>
+      <c r="AG31" s="194"/>
+      <c r="AH31" s="194"/>
+      <c r="AI31" s="194"/>
+      <c r="AJ31" s="194"/>
+      <c r="AK31" s="194"/>
+      <c r="AL31" s="194"/>
+      <c r="AM31" s="194"/>
+      <c r="AN31" s="194"/>
+      <c r="AO31" s="195"/>
       <c r="AT31" s="7"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
@@ -4653,49 +4674,49 @@
       <c r="BB31" s="6"/>
     </row>
     <row r="32" spans="1:54" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="116"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="116"/>
-      <c r="AL32" s="116"/>
-      <c r="AM32" s="116"/>
-      <c r="AN32" s="116"/>
-      <c r="AO32" s="117"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="115"/>
+      <c r="AB32" s="115"/>
+      <c r="AC32" s="115"/>
+      <c r="AD32" s="115"/>
+      <c r="AE32" s="115"/>
+      <c r="AF32" s="115"/>
+      <c r="AG32" s="115"/>
+      <c r="AH32" s="115"/>
+      <c r="AI32" s="115"/>
+      <c r="AJ32" s="115"/>
+      <c r="AK32" s="115"/>
+      <c r="AL32" s="115"/>
+      <c r="AM32" s="115"/>
+      <c r="AN32" s="115"/>
+      <c r="AO32" s="116"/>
       <c r="AT32" s="6"/>
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
@@ -4707,49 +4728,49 @@
       <c r="BB32" s="6"/>
     </row>
     <row r="33" spans="1:54" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="89"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
-      <c r="AE33" s="89"/>
-      <c r="AF33" s="89"/>
-      <c r="AG33" s="89"/>
-      <c r="AH33" s="89"/>
-      <c r="AI33" s="89"/>
-      <c r="AJ33" s="89"/>
-      <c r="AK33" s="89"/>
-      <c r="AL33" s="89"/>
-      <c r="AM33" s="89"/>
-      <c r="AN33" s="89"/>
-      <c r="AO33" s="90"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="135"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="135"/>
+      <c r="AJ33" s="135"/>
+      <c r="AK33" s="135"/>
+      <c r="AL33" s="135"/>
+      <c r="AM33" s="135"/>
+      <c r="AN33" s="135"/>
+      <c r="AO33" s="136"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
@@ -4761,49 +4782,49 @@
       <c r="BB33" s="6"/>
     </row>
     <row r="34" spans="1:54" s="5" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="31"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="188"/>
+      <c r="O34" s="188"/>
+      <c r="P34" s="188"/>
+      <c r="Q34" s="188"/>
+      <c r="R34" s="188"/>
+      <c r="S34" s="188"/>
+      <c r="T34" s="188"/>
+      <c r="U34" s="188"/>
+      <c r="V34" s="188"/>
+      <c r="W34" s="188"/>
+      <c r="X34" s="188"/>
+      <c r="Y34" s="188"/>
+      <c r="Z34" s="188"/>
+      <c r="AA34" s="188"/>
+      <c r="AB34" s="188"/>
+      <c r="AC34" s="188"/>
+      <c r="AD34" s="188"/>
+      <c r="AE34" s="188"/>
+      <c r="AF34" s="188"/>
+      <c r="AG34" s="188"/>
+      <c r="AH34" s="188"/>
+      <c r="AI34" s="188"/>
+      <c r="AJ34" s="188"/>
+      <c r="AK34" s="188"/>
+      <c r="AL34" s="188"/>
+      <c r="AM34" s="188"/>
+      <c r="AN34" s="188"/>
+      <c r="AO34" s="189"/>
       <c r="AT34" s="6"/>
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
@@ -4815,56 +4836,56 @@
       <c r="BB34" s="6"/>
     </row>
     <row r="35" spans="1:54" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="47" t="str">
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="158" t="str">
         <f>IF($A$33="3.1. VACANCIA DEFINITIVA POR SURTIR CONCURSO","X","N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="K35" s="48"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="27" t="s">
+      <c r="K35" s="159"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27" t="s">
+      <c r="N35" s="109"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="109"/>
+      <c r="Q35" s="109"/>
+      <c r="R35" s="109"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="109"/>
+      <c r="U35" s="109"/>
+      <c r="V35" s="109"/>
+      <c r="W35" s="109"/>
+      <c r="X35" s="109"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="109"/>
+      <c r="AA35" s="109"/>
+      <c r="AB35" s="109"/>
+      <c r="AC35" s="109"/>
+      <c r="AD35" s="109"/>
+      <c r="AE35" s="109"/>
+      <c r="AF35" s="109"/>
+      <c r="AG35" s="109"/>
+      <c r="AH35" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AI35" s="27"/>
-      <c r="AJ35" s="27"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="28"/>
+      <c r="AI35" s="109"/>
+      <c r="AJ35" s="109"/>
+      <c r="AK35" s="109"/>
+      <c r="AL35" s="109"/>
+      <c r="AM35" s="109"/>
+      <c r="AN35" s="109"/>
+      <c r="AO35" s="110"/>
       <c r="AT35" s="7"/>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
@@ -4876,47 +4897,47 @@
       <c r="BB35" s="6"/>
     </row>
     <row r="36" spans="1:54" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="28"/>
+      <c r="A36" s="129"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="163"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="109"/>
+      <c r="R36" s="109"/>
+      <c r="S36" s="109"/>
+      <c r="T36" s="109"/>
+      <c r="U36" s="109"/>
+      <c r="V36" s="109"/>
+      <c r="W36" s="109"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="109"/>
+      <c r="AI36" s="109"/>
+      <c r="AJ36" s="109"/>
+      <c r="AK36" s="109"/>
+      <c r="AL36" s="109"/>
+      <c r="AM36" s="109"/>
+      <c r="AN36" s="109"/>
+      <c r="AO36" s="110"/>
       <c r="AT36" s="6"/>
       <c r="AU36" s="6"/>
       <c r="AV36" s="6"/>
@@ -4928,50 +4949,50 @@
       <c r="BB36" s="6"/>
     </row>
     <row r="37" spans="1:54" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="105" t="str">
+      <c r="A37" s="129"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="130"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="164"/>
+      <c r="K37" s="165"/>
+      <c r="L37" s="166"/>
+      <c r="M37" s="151" t="str">
         <f>IF(J35="X",AL26,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="105"/>
-      <c r="X37" s="105"/>
-      <c r="Y37" s="105"/>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="105"/>
-      <c r="AB37" s="105"/>
-      <c r="AC37" s="105"/>
-      <c r="AD37" s="105"/>
-      <c r="AE37" s="105"/>
-      <c r="AF37" s="105"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="27"/>
-      <c r="AJ37" s="27"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="27"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="28"/>
+      <c r="N37" s="151"/>
+      <c r="O37" s="151"/>
+      <c r="P37" s="151"/>
+      <c r="Q37" s="151"/>
+      <c r="R37" s="151"/>
+      <c r="S37" s="151"/>
+      <c r="T37" s="151"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="151"/>
+      <c r="W37" s="151"/>
+      <c r="X37" s="151"/>
+      <c r="Y37" s="151"/>
+      <c r="Z37" s="151"/>
+      <c r="AA37" s="151"/>
+      <c r="AB37" s="151"/>
+      <c r="AC37" s="151"/>
+      <c r="AD37" s="151"/>
+      <c r="AE37" s="151"/>
+      <c r="AF37" s="151"/>
+      <c r="AG37" s="151"/>
+      <c r="AH37" s="109"/>
+      <c r="AI37" s="109"/>
+      <c r="AJ37" s="109"/>
+      <c r="AK37" s="109"/>
+      <c r="AL37" s="109"/>
+      <c r="AM37" s="109"/>
+      <c r="AN37" s="109"/>
+      <c r="AO37" s="110"/>
       <c r="AT37" s="6"/>
       <c r="AU37" s="6"/>
       <c r="AV37" s="6"/>
@@ -4983,200 +5004,200 @@
       <c r="BB37" s="6"/>
     </row>
     <row r="38" spans="1:54" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="47" t="str">
+      <c r="B38" s="130"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="130"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="158" t="str">
         <f>IF(AND($A$33="3.2. VACANCIA TEMPORAL"),"X","N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="27" t="s">
+      <c r="K38" s="159"/>
+      <c r="L38" s="160"/>
+      <c r="M38" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27" t="s">
+      <c r="N38" s="109"/>
+      <c r="O38" s="109"/>
+      <c r="P38" s="109"/>
+      <c r="Q38" s="109"/>
+      <c r="R38" s="109"/>
+      <c r="S38" s="109"/>
+      <c r="T38" s="109"/>
+      <c r="U38" s="109"/>
+      <c r="V38" s="109"/>
+      <c r="W38" s="109"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="28"/>
+      <c r="AI38" s="109"/>
+      <c r="AJ38" s="109"/>
+      <c r="AK38" s="109"/>
+      <c r="AL38" s="109"/>
+      <c r="AM38" s="109"/>
+      <c r="AN38" s="109"/>
+      <c r="AO38" s="110"/>
     </row>
     <row r="39" spans="1:54" s="5" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="28"/>
+      <c r="A39" s="129"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="163"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
+      <c r="S39" s="109"/>
+      <c r="T39" s="109"/>
+      <c r="U39" s="109"/>
+      <c r="V39" s="109"/>
+      <c r="W39" s="109"/>
+      <c r="X39" s="109"/>
+      <c r="Y39" s="109"/>
+      <c r="Z39" s="109"/>
+      <c r="AA39" s="109"/>
+      <c r="AB39" s="109"/>
+      <c r="AC39" s="109"/>
+      <c r="AD39" s="109"/>
+      <c r="AE39" s="109"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
+      <c r="AH39" s="109"/>
+      <c r="AI39" s="109"/>
+      <c r="AJ39" s="109"/>
+      <c r="AK39" s="109"/>
+      <c r="AL39" s="109"/>
+      <c r="AM39" s="109"/>
+      <c r="AN39" s="109"/>
+      <c r="AO39" s="110"/>
     </row>
     <row r="40" spans="1:54" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="43"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="105" t="str">
+      <c r="A40" s="129"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="164"/>
+      <c r="K40" s="165"/>
+      <c r="L40" s="166"/>
+      <c r="M40" s="151" t="str">
         <f>IF(J38="X",AL26,"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="N40" s="105"/>
-      <c r="O40" s="105"/>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
-      <c r="S40" s="105"/>
-      <c r="T40" s="105"/>
-      <c r="U40" s="105"/>
-      <c r="V40" s="105"/>
-      <c r="W40" s="105"/>
-      <c r="X40" s="105"/>
-      <c r="Y40" s="105"/>
-      <c r="Z40" s="105"/>
-      <c r="AA40" s="105"/>
-      <c r="AB40" s="105"/>
-      <c r="AC40" s="105"/>
-      <c r="AD40" s="105"/>
-      <c r="AE40" s="105"/>
-      <c r="AF40" s="105"/>
-      <c r="AG40" s="105"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="28"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="151"/>
+      <c r="P40" s="151"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151"/>
+      <c r="S40" s="151"/>
+      <c r="T40" s="151"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="151"/>
+      <c r="W40" s="151"/>
+      <c r="X40" s="151"/>
+      <c r="Y40" s="151"/>
+      <c r="Z40" s="151"/>
+      <c r="AA40" s="151"/>
+      <c r="AB40" s="151"/>
+      <c r="AC40" s="151"/>
+      <c r="AD40" s="151"/>
+      <c r="AE40" s="151"/>
+      <c r="AF40" s="151"/>
+      <c r="AG40" s="151"/>
+      <c r="AH40" s="109"/>
+      <c r="AI40" s="109"/>
+      <c r="AJ40" s="109"/>
+      <c r="AK40" s="109"/>
+      <c r="AL40" s="109"/>
+      <c r="AM40" s="109"/>
+      <c r="AN40" s="109"/>
+      <c r="AO40" s="110"/>
       <c r="AP40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:54" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="47" t="str">
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="158" t="str">
         <f>IF(AND($A$33="3.3. VACANCIA DEFINITIVA A TÉRMINO FIJO"),"X","N/A")</f>
         <v>X</v>
       </c>
-      <c r="K41" s="48"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="27" t="s">
+      <c r="K41" s="159"/>
+      <c r="L41" s="160"/>
+      <c r="M41" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27" t="s">
+      <c r="N41" s="109"/>
+      <c r="O41" s="109"/>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="109"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="109"/>
+      <c r="T41" s="109"/>
+      <c r="U41" s="109"/>
+      <c r="V41" s="109"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="109"/>
+      <c r="Y41" s="109"/>
+      <c r="Z41" s="109"/>
+      <c r="AA41" s="109"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="109"/>
+      <c r="AG41" s="109"/>
+      <c r="AH41" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="28"/>
+      <c r="AI41" s="109"/>
+      <c r="AJ41" s="109"/>
+      <c r="AK41" s="109"/>
+      <c r="AL41" s="109"/>
+      <c r="AM41" s="109"/>
+      <c r="AN41" s="109"/>
+      <c r="AO41" s="110"/>
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AS41" s="1"/>
@@ -5188,47 +5209,47 @@
       <c r="AY41" s="1"/>
     </row>
     <row r="42" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="43"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="28"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="130"/>
+      <c r="I42" s="130"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="163"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="109"/>
+      <c r="O42" s="109"/>
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="109"/>
+      <c r="S42" s="109"/>
+      <c r="T42" s="109"/>
+      <c r="U42" s="109"/>
+      <c r="V42" s="109"/>
+      <c r="W42" s="109"/>
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109"/>
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109"/>
+      <c r="AG42" s="109"/>
+      <c r="AH42" s="109"/>
+      <c r="AI42" s="109"/>
+      <c r="AJ42" s="109"/>
+      <c r="AK42" s="109"/>
+      <c r="AL42" s="109"/>
+      <c r="AM42" s="109"/>
+      <c r="AN42" s="109"/>
+      <c r="AO42" s="110"/>
       <c r="AP42" s="11" t="s">
         <v>15</v>
       </c>
@@ -5243,50 +5264,50 @@
       <c r="AY42" s="1"/>
     </row>
     <row r="43" spans="1:54" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="109">
+      <c r="A43" s="156"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="169"/>
+      <c r="M43" s="111">
         <f>IF(J41="X",AL26,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="109"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="109"/>
-      <c r="R43" s="109"/>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="109"/>
-      <c r="X43" s="109"/>
-      <c r="Y43" s="109"/>
-      <c r="Z43" s="109"/>
-      <c r="AA43" s="109"/>
-      <c r="AB43" s="109"/>
-      <c r="AC43" s="109"/>
-      <c r="AD43" s="109"/>
-      <c r="AE43" s="109"/>
-      <c r="AF43" s="109"/>
-      <c r="AG43" s="109"/>
-      <c r="AH43" s="110"/>
-      <c r="AI43" s="110"/>
-      <c r="AJ43" s="110"/>
-      <c r="AK43" s="110"/>
-      <c r="AL43" s="110"/>
-      <c r="AM43" s="110"/>
-      <c r="AN43" s="110"/>
-      <c r="AO43" s="111"/>
+        <v>100</v>
+      </c>
+      <c r="N43" s="111"/>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
+      <c r="U43" s="111"/>
+      <c r="V43" s="111"/>
+      <c r="W43" s="111"/>
+      <c r="X43" s="111"/>
+      <c r="Y43" s="111"/>
+      <c r="Z43" s="111"/>
+      <c r="AA43" s="111"/>
+      <c r="AB43" s="111"/>
+      <c r="AC43" s="111"/>
+      <c r="AD43" s="111"/>
+      <c r="AE43" s="111"/>
+      <c r="AF43" s="111"/>
+      <c r="AG43" s="111"/>
+      <c r="AH43" s="112"/>
+      <c r="AI43" s="112"/>
+      <c r="AJ43" s="112"/>
+      <c r="AK43" s="112"/>
+      <c r="AL43" s="112"/>
+      <c r="AM43" s="112"/>
+      <c r="AN43" s="112"/>
+      <c r="AO43" s="113"/>
       <c r="AQ43" s="1"/>
       <c r="AR43" s="9" t="s">
         <v>17</v>
@@ -5301,49 +5322,49 @@
       <c r="AZ43" s="10"/>
     </row>
     <row r="44" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
-      <c r="O44" s="100"/>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="100"/>
-      <c r="R44" s="100"/>
-      <c r="S44" s="100"/>
-      <c r="T44" s="100"/>
-      <c r="U44" s="100"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
-      <c r="Y44" s="100"/>
-      <c r="Z44" s="100"/>
-      <c r="AA44" s="100"/>
-      <c r="AB44" s="100"/>
-      <c r="AC44" s="100"/>
-      <c r="AD44" s="100"/>
-      <c r="AE44" s="100"/>
-      <c r="AF44" s="100"/>
-      <c r="AG44" s="100"/>
-      <c r="AH44" s="100"/>
-      <c r="AI44" s="100"/>
-      <c r="AJ44" s="100"/>
-      <c r="AK44" s="100"/>
-      <c r="AL44" s="100"/>
-      <c r="AM44" s="100"/>
-      <c r="AN44" s="100"/>
-      <c r="AO44" s="101"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
+      <c r="O44" s="146"/>
+      <c r="P44" s="146"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="146"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="146"/>
+      <c r="AA44" s="146"/>
+      <c r="AB44" s="146"/>
+      <c r="AC44" s="146"/>
+      <c r="AD44" s="146"/>
+      <c r="AE44" s="146"/>
+      <c r="AF44" s="146"/>
+      <c r="AG44" s="146"/>
+      <c r="AH44" s="146"/>
+      <c r="AI44" s="146"/>
+      <c r="AJ44" s="146"/>
+      <c r="AK44" s="146"/>
+      <c r="AL44" s="146"/>
+      <c r="AM44" s="146"/>
+      <c r="AN44" s="146"/>
+      <c r="AO44" s="147"/>
       <c r="AP44" s="2">
         <v>2</v>
       </c>
@@ -5361,47 +5382,47 @@
       <c r="AZ44" s="10"/>
     </row>
     <row r="45" spans="1:54" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AG45" s="97"/>
-      <c r="AH45" s="97"/>
-      <c r="AI45" s="97"/>
-      <c r="AJ45" s="97"/>
-      <c r="AK45" s="97"/>
-      <c r="AL45" s="97"/>
-      <c r="AM45" s="97"/>
-      <c r="AN45" s="97"/>
-      <c r="AO45" s="98"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="143"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="143"/>
+      <c r="K45" s="143"/>
+      <c r="L45" s="143"/>
+      <c r="M45" s="143"/>
+      <c r="N45" s="143"/>
+      <c r="O45" s="143"/>
+      <c r="P45" s="143"/>
+      <c r="Q45" s="143"/>
+      <c r="R45" s="143"/>
+      <c r="S45" s="143"/>
+      <c r="T45" s="143"/>
+      <c r="U45" s="143"/>
+      <c r="V45" s="143"/>
+      <c r="W45" s="143"/>
+      <c r="X45" s="143"/>
+      <c r="Y45" s="143"/>
+      <c r="Z45" s="143"/>
+      <c r="AA45" s="143"/>
+      <c r="AB45" s="143"/>
+      <c r="AC45" s="143"/>
+      <c r="AD45" s="143"/>
+      <c r="AE45" s="143"/>
+      <c r="AF45" s="143"/>
+      <c r="AG45" s="143"/>
+      <c r="AH45" s="143"/>
+      <c r="AI45" s="143"/>
+      <c r="AJ45" s="143"/>
+      <c r="AK45" s="143"/>
+      <c r="AL45" s="143"/>
+      <c r="AM45" s="143"/>
+      <c r="AN45" s="143"/>
+      <c r="AO45" s="144"/>
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
       <c r="AR45" s="9" t="s">
@@ -5422,54 +5443,54 @@
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="59" t="s">
+      <c r="F46" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="62">
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="173">
         <f>AL26/100</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="173"/>
+      <c r="O46" s="173"/>
+      <c r="P46" s="173"/>
+      <c r="Q46" s="173"/>
+      <c r="R46" s="173"/>
+      <c r="S46" s="174"/>
       <c r="T46" s="18"/>
       <c r="U46" s="14"/>
       <c r="V46" s="17"/>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="59" t="str">
+      <c r="Z46" s="170" t="str">
         <f>IF(AL26&lt;=55,"CALIFICACION: NO ACEPTABLE",
 IF(AND(AL26&gt;=56,AL26&lt;=75),"CALIFICACION: ACEPTABLE",
 IF(AND(AL26&gt;=76,AL26&lt;=89),"CALIFICACION: BUENO",
 IF(AND(AL26&gt;=90,AL26&lt;=100),"CALIFICACION: EXCELENTE",
 ))))</f>
-        <v>CALIFICACION: NO ACEPTABLE</v>
-      </c>
-      <c r="AA46" s="60"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="60"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="60"/>
-      <c r="AF46" s="60"/>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="61"/>
-      <c r="AK46" s="91"/>
-      <c r="AL46" s="91"/>
-      <c r="AM46" s="91"/>
-      <c r="AN46" s="91"/>
-      <c r="AO46" s="92"/>
+        <v>CALIFICACION: EXCELENTE</v>
+      </c>
+      <c r="AA46" s="171"/>
+      <c r="AB46" s="171"/>
+      <c r="AC46" s="171"/>
+      <c r="AD46" s="171"/>
+      <c r="AE46" s="171"/>
+      <c r="AF46" s="171"/>
+      <c r="AG46" s="171"/>
+      <c r="AH46" s="171"/>
+      <c r="AI46" s="171"/>
+      <c r="AJ46" s="172"/>
+      <c r="AK46" s="137"/>
+      <c r="AL46" s="137"/>
+      <c r="AM46" s="137"/>
+      <c r="AN46" s="137"/>
+      <c r="AO46" s="138"/>
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
       <c r="AR46" s="9" t="s">
@@ -5485,47 +5506,47 @@
       <c r="AZ46" s="8"/>
     </row>
     <row r="47" spans="1:54" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
-      <c r="T47" s="94"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="94"/>
-      <c r="W47" s="94"/>
-      <c r="X47" s="94"/>
-      <c r="Y47" s="94"/>
-      <c r="Z47" s="94"/>
-      <c r="AA47" s="94"/>
-      <c r="AB47" s="94"/>
-      <c r="AC47" s="94"/>
-      <c r="AD47" s="94"/>
-      <c r="AE47" s="94"/>
-      <c r="AF47" s="94"/>
-      <c r="AG47" s="94"/>
-      <c r="AH47" s="94"/>
-      <c r="AI47" s="94"/>
-      <c r="AJ47" s="94"/>
-      <c r="AK47" s="94"/>
-      <c r="AL47" s="94"/>
-      <c r="AM47" s="94"/>
-      <c r="AN47" s="94"/>
-      <c r="AO47" s="95"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="140"/>
+      <c r="E47" s="140"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="140"/>
+      <c r="L47" s="140"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="140"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="140"/>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="140"/>
+      <c r="S47" s="140"/>
+      <c r="T47" s="140"/>
+      <c r="U47" s="140"/>
+      <c r="V47" s="140"/>
+      <c r="W47" s="140"/>
+      <c r="X47" s="140"/>
+      <c r="Y47" s="140"/>
+      <c r="Z47" s="140"/>
+      <c r="AA47" s="140"/>
+      <c r="AB47" s="140"/>
+      <c r="AC47" s="140"/>
+      <c r="AD47" s="140"/>
+      <c r="AE47" s="140"/>
+      <c r="AF47" s="140"/>
+      <c r="AG47" s="140"/>
+      <c r="AH47" s="140"/>
+      <c r="AI47" s="140"/>
+      <c r="AJ47" s="140"/>
+      <c r="AK47" s="140"/>
+      <c r="AL47" s="140"/>
+      <c r="AM47" s="140"/>
+      <c r="AN47" s="140"/>
+      <c r="AO47" s="141"/>
       <c r="AP47" s="1" t="s">
         <v>16</v>
       </c>
@@ -5540,49 +5561,49 @@
       <c r="AY47" s="1"/>
     </row>
     <row r="48" spans="1:54" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="75"/>
-      <c r="S48" s="75"/>
-      <c r="T48" s="75"/>
-      <c r="U48" s="75"/>
-      <c r="V48" s="75"/>
-      <c r="W48" s="75"/>
-      <c r="X48" s="75"/>
-      <c r="Y48" s="75"/>
-      <c r="Z48" s="75"/>
-      <c r="AA48" s="75"/>
-      <c r="AB48" s="75"/>
-      <c r="AC48" s="75"/>
-      <c r="AD48" s="75"/>
-      <c r="AE48" s="75"/>
-      <c r="AF48" s="75"/>
-      <c r="AG48" s="75"/>
-      <c r="AH48" s="75"/>
-      <c r="AI48" s="75"/>
-      <c r="AJ48" s="75"/>
-      <c r="AK48" s="75"/>
-      <c r="AL48" s="75"/>
-      <c r="AM48" s="75"/>
-      <c r="AN48" s="75"/>
-      <c r="AO48" s="76"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+      <c r="Y48" s="72"/>
+      <c r="Z48" s="72"/>
+      <c r="AA48" s="72"/>
+      <c r="AB48" s="72"/>
+      <c r="AC48" s="72"/>
+      <c r="AD48" s="72"/>
+      <c r="AE48" s="72"/>
+      <c r="AF48" s="72"/>
+      <c r="AG48" s="72"/>
+      <c r="AH48" s="72"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="72"/>
+      <c r="AN48" s="72"/>
+      <c r="AO48" s="73"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
@@ -5596,51 +5617,51 @@
       <c r="AZ48" s="4"/>
     </row>
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="178" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="71" t="s">
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="54"/>
+      <c r="T49" s="54"/>
+      <c r="U49" s="54"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="54"/>
+      <c r="X49" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="Y49" s="72"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="72"/>
-      <c r="AC49" s="72"/>
-      <c r="AD49" s="72"/>
-      <c r="AE49" s="72"/>
-      <c r="AF49" s="72"/>
-      <c r="AG49" s="72"/>
-      <c r="AH49" s="72"/>
-      <c r="AI49" s="72"/>
-      <c r="AJ49" s="72"/>
-      <c r="AK49" s="72"/>
-      <c r="AL49" s="72"/>
-      <c r="AM49" s="72"/>
-      <c r="AN49" s="72"/>
-      <c r="AO49" s="73"/>
+      <c r="Y49" s="182"/>
+      <c r="Z49" s="182"/>
+      <c r="AA49" s="182"/>
+      <c r="AB49" s="182"/>
+      <c r="AC49" s="182"/>
+      <c r="AD49" s="182"/>
+      <c r="AE49" s="182"/>
+      <c r="AF49" s="182"/>
+      <c r="AG49" s="182"/>
+      <c r="AH49" s="182"/>
+      <c r="AI49" s="182"/>
+      <c r="AJ49" s="182"/>
+      <c r="AK49" s="182"/>
+      <c r="AL49" s="182"/>
+      <c r="AM49" s="182"/>
+      <c r="AN49" s="182"/>
+      <c r="AO49" s="183"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
@@ -5654,47 +5675,47 @@
       <c r="AZ49" s="4"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A50" s="69"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="70"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="70"/>
-      <c r="R50" s="70"/>
-      <c r="S50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="U50" s="70"/>
-      <c r="V50" s="70"/>
-      <c r="W50" s="70"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="65"/>
-      <c r="AC50" s="65"/>
-      <c r="AD50" s="65"/>
-      <c r="AE50" s="65"/>
-      <c r="AF50" s="65"/>
-      <c r="AG50" s="65"/>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="65"/>
-      <c r="AJ50" s="65"/>
-      <c r="AK50" s="65"/>
-      <c r="AL50" s="65"/>
-      <c r="AM50" s="65"/>
-      <c r="AN50" s="65"/>
-      <c r="AO50" s="66"/>
+      <c r="A50" s="179"/>
+      <c r="B50" s="180"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="180"/>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="180"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="180"/>
+      <c r="N50" s="180"/>
+      <c r="O50" s="180"/>
+      <c r="P50" s="180"/>
+      <c r="Q50" s="180"/>
+      <c r="R50" s="180"/>
+      <c r="S50" s="180"/>
+      <c r="T50" s="180"/>
+      <c r="U50" s="180"/>
+      <c r="V50" s="180"/>
+      <c r="W50" s="180"/>
+      <c r="X50" s="175"/>
+      <c r="Y50" s="176"/>
+      <c r="Z50" s="176"/>
+      <c r="AA50" s="176"/>
+      <c r="AB50" s="176"/>
+      <c r="AC50" s="176"/>
+      <c r="AD50" s="176"/>
+      <c r="AE50" s="176"/>
+      <c r="AF50" s="176"/>
+      <c r="AG50" s="176"/>
+      <c r="AH50" s="176"/>
+      <c r="AI50" s="176"/>
+      <c r="AJ50" s="176"/>
+      <c r="AK50" s="176"/>
+      <c r="AL50" s="176"/>
+      <c r="AM50" s="176"/>
+      <c r="AN50" s="176"/>
+      <c r="AO50" s="177"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
@@ -5708,47 +5729,47 @@
       <c r="AZ50" s="4"/>
     </row>
     <row r="51" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A51" s="69"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="70"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="70"/>
-      <c r="R51" s="70"/>
-      <c r="S51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="U51" s="70"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="70"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="65"/>
-      <c r="Z51" s="65"/>
-      <c r="AA51" s="65"/>
-      <c r="AB51" s="65"/>
-      <c r="AC51" s="65"/>
-      <c r="AD51" s="65"/>
-      <c r="AE51" s="65"/>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65"/>
-      <c r="AH51" s="65"/>
-      <c r="AI51" s="65"/>
-      <c r="AJ51" s="65"/>
-      <c r="AK51" s="65"/>
-      <c r="AL51" s="65"/>
-      <c r="AM51" s="65"/>
-      <c r="AN51" s="65"/>
-      <c r="AO51" s="66"/>
+      <c r="A51" s="179"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
+      <c r="J51" s="180"/>
+      <c r="K51" s="180"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="180"/>
+      <c r="O51" s="180"/>
+      <c r="P51" s="180"/>
+      <c r="Q51" s="180"/>
+      <c r="R51" s="180"/>
+      <c r="S51" s="180"/>
+      <c r="T51" s="180"/>
+      <c r="U51" s="180"/>
+      <c r="V51" s="180"/>
+      <c r="W51" s="180"/>
+      <c r="X51" s="175"/>
+      <c r="Y51" s="176"/>
+      <c r="Z51" s="176"/>
+      <c r="AA51" s="176"/>
+      <c r="AB51" s="176"/>
+      <c r="AC51" s="176"/>
+      <c r="AD51" s="176"/>
+      <c r="AE51" s="176"/>
+      <c r="AF51" s="176"/>
+      <c r="AG51" s="176"/>
+      <c r="AH51" s="176"/>
+      <c r="AI51" s="176"/>
+      <c r="AJ51" s="176"/>
+      <c r="AK51" s="176"/>
+      <c r="AL51" s="176"/>
+      <c r="AM51" s="176"/>
+      <c r="AN51" s="176"/>
+      <c r="AO51" s="177"/>
       <c r="AP51" s="13" t="s">
         <v>39</v>
       </c>
@@ -5764,47 +5785,47 @@
       <c r="AZ51" s="4"/>
     </row>
     <row r="52" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="69"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
-      <c r="O52" s="70"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="70"/>
-      <c r="R52" s="70"/>
-      <c r="S52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="U52" s="70"/>
-      <c r="V52" s="70"/>
-      <c r="W52" s="70"/>
-      <c r="X52" s="64"/>
-      <c r="Y52" s="65"/>
-      <c r="Z52" s="65"/>
-      <c r="AA52" s="65"/>
-      <c r="AB52" s="65"/>
-      <c r="AC52" s="65"/>
-      <c r="AD52" s="65"/>
-      <c r="AE52" s="65"/>
-      <c r="AF52" s="65"/>
-      <c r="AG52" s="65"/>
-      <c r="AH52" s="65"/>
-      <c r="AI52" s="65"/>
-      <c r="AJ52" s="65"/>
-      <c r="AK52" s="65"/>
-      <c r="AL52" s="65"/>
-      <c r="AM52" s="65"/>
-      <c r="AN52" s="65"/>
-      <c r="AO52" s="66"/>
+      <c r="A52" s="179"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="180"/>
+      <c r="K52" s="180"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="180"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="180"/>
+      <c r="Q52" s="180"/>
+      <c r="R52" s="180"/>
+      <c r="S52" s="180"/>
+      <c r="T52" s="180"/>
+      <c r="U52" s="180"/>
+      <c r="V52" s="180"/>
+      <c r="W52" s="180"/>
+      <c r="X52" s="175"/>
+      <c r="Y52" s="176"/>
+      <c r="Z52" s="176"/>
+      <c r="AA52" s="176"/>
+      <c r="AB52" s="176"/>
+      <c r="AC52" s="176"/>
+      <c r="AD52" s="176"/>
+      <c r="AE52" s="176"/>
+      <c r="AF52" s="176"/>
+      <c r="AG52" s="176"/>
+      <c r="AH52" s="176"/>
+      <c r="AI52" s="176"/>
+      <c r="AJ52" s="176"/>
+      <c r="AK52" s="176"/>
+      <c r="AL52" s="176"/>
+      <c r="AM52" s="176"/>
+      <c r="AN52" s="176"/>
+      <c r="AO52" s="177"/>
       <c r="AP52" s="3"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
@@ -5818,47 +5839,47 @@
       <c r="AZ52" s="4"/>
     </row>
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
-      <c r="L53" s="70"/>
-      <c r="M53" s="70"/>
-      <c r="N53" s="70"/>
-      <c r="O53" s="70"/>
-      <c r="P53" s="70"/>
-      <c r="Q53" s="70"/>
-      <c r="R53" s="70"/>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="U53" s="70"/>
-      <c r="V53" s="70"/>
-      <c r="W53" s="70"/>
-      <c r="X53" s="64"/>
-      <c r="Y53" s="65"/>
-      <c r="Z53" s="65"/>
-      <c r="AA53" s="65"/>
-      <c r="AB53" s="65"/>
-      <c r="AC53" s="65"/>
-      <c r="AD53" s="65"/>
-      <c r="AE53" s="65"/>
-      <c r="AF53" s="65"/>
-      <c r="AG53" s="65"/>
-      <c r="AH53" s="65"/>
-      <c r="AI53" s="65"/>
-      <c r="AJ53" s="65"/>
-      <c r="AK53" s="65"/>
-      <c r="AL53" s="65"/>
-      <c r="AM53" s="65"/>
-      <c r="AN53" s="65"/>
-      <c r="AO53" s="66"/>
+      <c r="A53" s="179"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="180"/>
+      <c r="D53" s="180"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="180"/>
+      <c r="G53" s="180"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="180"/>
+      <c r="K53" s="180"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="180"/>
+      <c r="N53" s="180"/>
+      <c r="O53" s="180"/>
+      <c r="P53" s="180"/>
+      <c r="Q53" s="180"/>
+      <c r="R53" s="180"/>
+      <c r="S53" s="180"/>
+      <c r="T53" s="180"/>
+      <c r="U53" s="180"/>
+      <c r="V53" s="180"/>
+      <c r="W53" s="180"/>
+      <c r="X53" s="175"/>
+      <c r="Y53" s="176"/>
+      <c r="Z53" s="176"/>
+      <c r="AA53" s="176"/>
+      <c r="AB53" s="176"/>
+      <c r="AC53" s="176"/>
+      <c r="AD53" s="176"/>
+      <c r="AE53" s="176"/>
+      <c r="AF53" s="176"/>
+      <c r="AG53" s="176"/>
+      <c r="AH53" s="176"/>
+      <c r="AI53" s="176"/>
+      <c r="AJ53" s="176"/>
+      <c r="AK53" s="176"/>
+      <c r="AL53" s="176"/>
+      <c r="AM53" s="176"/>
+      <c r="AN53" s="176"/>
+      <c r="AO53" s="177"/>
       <c r="AP53" s="3"/>
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
@@ -5872,47 +5893,47 @@
       <c r="AZ53" s="4"/>
     </row>
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="78"/>
-      <c r="M54" s="78"/>
-      <c r="N54" s="78"/>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="78"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="78"/>
-      <c r="W54" s="78"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="78"/>
-      <c r="AC54" s="78"/>
-      <c r="AD54" s="78"/>
-      <c r="AE54" s="78"/>
-      <c r="AF54" s="78"/>
-      <c r="AG54" s="78"/>
-      <c r="AH54" s="78"/>
-      <c r="AI54" s="78"/>
-      <c r="AJ54" s="78"/>
-      <c r="AK54" s="78"/>
-      <c r="AL54" s="78"/>
-      <c r="AM54" s="78"/>
-      <c r="AN54" s="78"/>
-      <c r="AO54" s="79"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="126"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="126"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="126"/>
+      <c r="H54" s="126"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="126"/>
+      <c r="K54" s="126"/>
+      <c r="L54" s="126"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="126"/>
+      <c r="O54" s="126"/>
+      <c r="P54" s="126"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="126"/>
+      <c r="S54" s="126"/>
+      <c r="T54" s="126"/>
+      <c r="U54" s="126"/>
+      <c r="V54" s="126"/>
+      <c r="W54" s="126"/>
+      <c r="X54" s="126"/>
+      <c r="Y54" s="126"/>
+      <c r="Z54" s="126"/>
+      <c r="AA54" s="126"/>
+      <c r="AB54" s="126"/>
+      <c r="AC54" s="126"/>
+      <c r="AD54" s="126"/>
+      <c r="AE54" s="126"/>
+      <c r="AF54" s="126"/>
+      <c r="AG54" s="126"/>
+      <c r="AH54" s="126"/>
+      <c r="AI54" s="126"/>
+      <c r="AJ54" s="126"/>
+      <c r="AK54" s="126"/>
+      <c r="AL54" s="126"/>
+      <c r="AM54" s="126"/>
+      <c r="AN54" s="126"/>
+      <c r="AO54" s="127"/>
       <c r="AP54" s="4"/>
       <c r="AQ54" s="4"/>
       <c r="AR54" s="4"/>
@@ -5926,473 +5947,556 @@
       <c r="AZ54" s="4"/>
     </row>
     <row r="55" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41" t="s">
+      <c r="A55" s="152"/>
+      <c r="B55" s="153"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="41"/>
-      <c r="V55" s="41" t="s">
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="154"/>
+      <c r="M55" s="154"/>
+      <c r="N55" s="154"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="W55" s="41"/>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="41"/>
-      <c r="Z55" s="41"/>
-      <c r="AA55" s="41"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="41"/>
-      <c r="AD55" s="41"/>
-      <c r="AE55" s="41"/>
-      <c r="AF55" s="41" t="s">
+      <c r="W55" s="154"/>
+      <c r="X55" s="154"/>
+      <c r="Y55" s="154"/>
+      <c r="Z55" s="154"/>
+      <c r="AA55" s="154"/>
+      <c r="AB55" s="154"/>
+      <c r="AC55" s="154"/>
+      <c r="AD55" s="154"/>
+      <c r="AE55" s="154"/>
+      <c r="AF55" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="AG55" s="41"/>
-      <c r="AH55" s="41"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41"/>
-      <c r="AL55" s="41"/>
-      <c r="AM55" s="41"/>
-      <c r="AN55" s="41"/>
-      <c r="AO55" s="42"/>
+      <c r="AG55" s="154"/>
+      <c r="AH55" s="154"/>
+      <c r="AI55" s="154"/>
+      <c r="AJ55" s="154"/>
+      <c r="AK55" s="154"/>
+      <c r="AL55" s="154"/>
+      <c r="AM55" s="154"/>
+      <c r="AN55" s="154"/>
+      <c r="AO55" s="155"/>
       <c r="AP55">
         <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:52" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="140" t="s">
+      <c r="A56" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="141"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="142"/>
-      <c r="L56" s="142"/>
-      <c r="M56" s="142"/>
-      <c r="N56" s="142"/>
-      <c r="O56" s="142"/>
-      <c r="P56" s="142"/>
-      <c r="Q56" s="142"/>
-      <c r="R56" s="142"/>
-      <c r="S56" s="142"/>
-      <c r="T56" s="142"/>
-      <c r="U56" s="142"/>
-      <c r="V56" s="142"/>
-      <c r="W56" s="142"/>
-      <c r="X56" s="142"/>
-      <c r="Y56" s="142"/>
-      <c r="Z56" s="142"/>
-      <c r="AA56" s="142"/>
-      <c r="AB56" s="142"/>
-      <c r="AC56" s="142"/>
-      <c r="AD56" s="142"/>
-      <c r="AE56" s="142"/>
-      <c r="AF56" s="142"/>
-      <c r="AG56" s="142"/>
-      <c r="AH56" s="142"/>
-      <c r="AI56" s="142"/>
-      <c r="AJ56" s="142"/>
-      <c r="AK56" s="142"/>
-      <c r="AL56" s="142"/>
-      <c r="AM56" s="142"/>
-      <c r="AN56" s="142"/>
-      <c r="AO56" s="143"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="100"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="100"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="100"/>
+      <c r="Y56" s="100"/>
+      <c r="Z56" s="100"/>
+      <c r="AA56" s="100"/>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="100"/>
+      <c r="AE56" s="100"/>
+      <c r="AF56" s="100"/>
+      <c r="AG56" s="100"/>
+      <c r="AH56" s="100"/>
+      <c r="AI56" s="100"/>
+      <c r="AJ56" s="100"/>
+      <c r="AK56" s="100"/>
+      <c r="AL56" s="100"/>
+      <c r="AM56" s="100"/>
+      <c r="AN56" s="100"/>
+      <c r="AO56" s="101"/>
     </row>
     <row r="57" spans="1:52" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="140" t="s">
+      <c r="A57" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="142"/>
-      <c r="L57" s="142"/>
-      <c r="M57" s="142"/>
-      <c r="N57" s="142"/>
-      <c r="O57" s="142"/>
-      <c r="P57" s="142"/>
-      <c r="Q57" s="142"/>
-      <c r="R57" s="142"/>
-      <c r="S57" s="142"/>
-      <c r="T57" s="142"/>
-      <c r="U57" s="142"/>
-      <c r="V57" s="142"/>
-      <c r="W57" s="142"/>
-      <c r="X57" s="142"/>
-      <c r="Y57" s="142"/>
-      <c r="Z57" s="142"/>
-      <c r="AA57" s="142"/>
-      <c r="AB57" s="142"/>
-      <c r="AC57" s="142"/>
-      <c r="AD57" s="142"/>
-      <c r="AE57" s="142"/>
-      <c r="AF57" s="142"/>
-      <c r="AG57" s="142"/>
-      <c r="AH57" s="142"/>
-      <c r="AI57" s="142"/>
-      <c r="AJ57" s="142"/>
-      <c r="AK57" s="142"/>
-      <c r="AL57" s="142"/>
-      <c r="AM57" s="142"/>
-      <c r="AN57" s="142"/>
-      <c r="AO57" s="143"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="100"/>
+      <c r="T57" s="100"/>
+      <c r="U57" s="100"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
+      <c r="X57" s="100"/>
+      <c r="Y57" s="100"/>
+      <c r="Z57" s="100"/>
+      <c r="AA57" s="100"/>
+      <c r="AB57" s="100"/>
+      <c r="AC57" s="100"/>
+      <c r="AD57" s="100"/>
+      <c r="AE57" s="100"/>
+      <c r="AF57" s="100"/>
+      <c r="AG57" s="100"/>
+      <c r="AH57" s="100"/>
+      <c r="AI57" s="100"/>
+      <c r="AJ57" s="100"/>
+      <c r="AK57" s="100"/>
+      <c r="AL57" s="100"/>
+      <c r="AM57" s="100"/>
+      <c r="AN57" s="100"/>
+      <c r="AO57" s="101"/>
     </row>
     <row r="58" spans="1:52" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="144" t="s">
+      <c r="A58" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="146"/>
-      <c r="I58" s="146"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="146"/>
-      <c r="N58" s="146"/>
-      <c r="O58" s="146"/>
-      <c r="P58" s="146"/>
-      <c r="Q58" s="146"/>
-      <c r="R58" s="146"/>
-      <c r="S58" s="146"/>
-      <c r="T58" s="146"/>
-      <c r="U58" s="146"/>
-      <c r="V58" s="146"/>
-      <c r="W58" s="146"/>
-      <c r="X58" s="146"/>
-      <c r="Y58" s="146"/>
-      <c r="Z58" s="146"/>
-      <c r="AA58" s="146"/>
-      <c r="AB58" s="146"/>
-      <c r="AC58" s="146"/>
-      <c r="AD58" s="146"/>
-      <c r="AE58" s="146"/>
-      <c r="AF58" s="146"/>
-      <c r="AG58" s="146"/>
-      <c r="AH58" s="146"/>
-      <c r="AI58" s="146"/>
-      <c r="AJ58" s="146"/>
-      <c r="AK58" s="146"/>
-      <c r="AL58" s="146"/>
-      <c r="AM58" s="146"/>
-      <c r="AN58" s="146"/>
-      <c r="AO58" s="147"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="104"/>
+      <c r="AI58" s="104"/>
+      <c r="AJ58" s="104"/>
+      <c r="AK58" s="104"/>
+      <c r="AL58" s="104"/>
+      <c r="AM58" s="104"/>
+      <c r="AN58" s="104"/>
+      <c r="AO58" s="105"/>
     </row>
     <row r="59" spans="1:52" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="75"/>
-      <c r="J59" s="75"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="75"/>
-      <c r="P59" s="75"/>
-      <c r="Q59" s="75"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="75"/>
-      <c r="T59" s="75"/>
-      <c r="U59" s="75"/>
-      <c r="V59" s="75"/>
-      <c r="W59" s="75"/>
-      <c r="X59" s="75"/>
-      <c r="Y59" s="75"/>
-      <c r="Z59" s="75"/>
-      <c r="AA59" s="75"/>
-      <c r="AB59" s="75"/>
-      <c r="AC59" s="75"/>
-      <c r="AD59" s="75"/>
-      <c r="AE59" s="75"/>
-      <c r="AF59" s="75"/>
-      <c r="AG59" s="75"/>
-      <c r="AH59" s="75"/>
-      <c r="AI59" s="75"/>
-      <c r="AJ59" s="75"/>
-      <c r="AK59" s="75"/>
-      <c r="AL59" s="75"/>
-      <c r="AM59" s="75"/>
-      <c r="AN59" s="75"/>
-      <c r="AO59" s="76"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="72"/>
+      <c r="R59" s="72"/>
+      <c r="S59" s="72"/>
+      <c r="T59" s="72"/>
+      <c r="U59" s="72"/>
+      <c r="V59" s="72"/>
+      <c r="W59" s="72"/>
+      <c r="X59" s="72"/>
+      <c r="Y59" s="72"/>
+      <c r="Z59" s="72"/>
+      <c r="AA59" s="72"/>
+      <c r="AB59" s="72"/>
+      <c r="AC59" s="72"/>
+      <c r="AD59" s="72"/>
+      <c r="AE59" s="72"/>
+      <c r="AF59" s="72"/>
+      <c r="AG59" s="72"/>
+      <c r="AH59" s="72"/>
+      <c r="AI59" s="72"/>
+      <c r="AJ59" s="72"/>
+      <c r="AK59" s="72"/>
+      <c r="AL59" s="72"/>
+      <c r="AM59" s="72"/>
+      <c r="AN59" s="72"/>
+      <c r="AO59" s="73"/>
     </row>
     <row r="60" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="131"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="132"/>
-      <c r="M60" s="132"/>
-      <c r="N60" s="132"/>
-      <c r="O60" s="132"/>
-      <c r="P60" s="132"/>
-      <c r="Q60" s="132"/>
-      <c r="R60" s="132"/>
-      <c r="S60" s="132"/>
-      <c r="T60" s="132"/>
-      <c r="U60" s="132"/>
-      <c r="V60" s="132"/>
-      <c r="W60" s="132"/>
-      <c r="X60" s="132"/>
-      <c r="Y60" s="132"/>
-      <c r="Z60" s="132"/>
-      <c r="AA60" s="132"/>
-      <c r="AB60" s="132"/>
-      <c r="AC60" s="132"/>
-      <c r="AD60" s="132"/>
-      <c r="AE60" s="132"/>
-      <c r="AF60" s="132"/>
-      <c r="AG60" s="132"/>
-      <c r="AH60" s="132"/>
-      <c r="AI60" s="132"/>
-      <c r="AJ60" s="132"/>
-      <c r="AK60" s="132"/>
-      <c r="AL60" s="132"/>
-      <c r="AM60" s="132"/>
-      <c r="AN60" s="132"/>
-      <c r="AO60" s="133"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="90"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
+      <c r="V60" s="90"/>
+      <c r="W60" s="90"/>
+      <c r="X60" s="90"/>
+      <c r="Y60" s="90"/>
+      <c r="Z60" s="90"/>
+      <c r="AA60" s="90"/>
+      <c r="AB60" s="90"/>
+      <c r="AC60" s="90"/>
+      <c r="AD60" s="90"/>
+      <c r="AE60" s="90"/>
+      <c r="AF60" s="90"/>
+      <c r="AG60" s="90"/>
+      <c r="AH60" s="90"/>
+      <c r="AI60" s="90"/>
+      <c r="AJ60" s="90"/>
+      <c r="AK60" s="90"/>
+      <c r="AL60" s="90"/>
+      <c r="AM60" s="90"/>
+      <c r="AN60" s="90"/>
+      <c r="AO60" s="91"/>
     </row>
     <row r="61" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="134"/>
-      <c r="B61" s="135"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="135"/>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="135"/>
-      <c r="S61" s="135"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="135"/>
-      <c r="V61" s="135"/>
-      <c r="W61" s="135"/>
-      <c r="X61" s="135"/>
-      <c r="Y61" s="135"/>
-      <c r="Z61" s="135"/>
-      <c r="AA61" s="135"/>
-      <c r="AB61" s="135"/>
-      <c r="AC61" s="135"/>
-      <c r="AD61" s="135"/>
-      <c r="AE61" s="135"/>
-      <c r="AF61" s="135"/>
-      <c r="AG61" s="135"/>
-      <c r="AH61" s="135"/>
-      <c r="AI61" s="135"/>
-      <c r="AJ61" s="135"/>
-      <c r="AK61" s="135"/>
-      <c r="AL61" s="135"/>
-      <c r="AM61" s="135"/>
-      <c r="AN61" s="135"/>
-      <c r="AO61" s="136"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="93"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="93"/>
+      <c r="V61" s="93"/>
+      <c r="W61" s="93"/>
+      <c r="X61" s="93"/>
+      <c r="Y61" s="93"/>
+      <c r="Z61" s="93"/>
+      <c r="AA61" s="93"/>
+      <c r="AB61" s="93"/>
+      <c r="AC61" s="93"/>
+      <c r="AD61" s="93"/>
+      <c r="AE61" s="93"/>
+      <c r="AF61" s="93"/>
+      <c r="AG61" s="93"/>
+      <c r="AH61" s="93"/>
+      <c r="AI61" s="93"/>
+      <c r="AJ61" s="93"/>
+      <c r="AK61" s="93"/>
+      <c r="AL61" s="93"/>
+      <c r="AM61" s="93"/>
+      <c r="AN61" s="93"/>
+      <c r="AO61" s="94"/>
     </row>
     <row r="62" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="134"/>
-      <c r="B62" s="135"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="135"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="135"/>
-      <c r="S62" s="135"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="135"/>
-      <c r="V62" s="135"/>
-      <c r="W62" s="135"/>
-      <c r="X62" s="135"/>
-      <c r="Y62" s="135"/>
-      <c r="Z62" s="135"/>
-      <c r="AA62" s="135"/>
-      <c r="AB62" s="135"/>
-      <c r="AC62" s="135"/>
-      <c r="AD62" s="135"/>
-      <c r="AE62" s="135"/>
-      <c r="AF62" s="135"/>
-      <c r="AG62" s="135"/>
-      <c r="AH62" s="135"/>
-      <c r="AI62" s="135"/>
-      <c r="AJ62" s="135"/>
-      <c r="AK62" s="135"/>
-      <c r="AL62" s="135"/>
-      <c r="AM62" s="135"/>
-      <c r="AN62" s="135"/>
-      <c r="AO62" s="136"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="93"/>
+      <c r="F62" s="93"/>
+      <c r="G62" s="93"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="93"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
+      <c r="Q62" s="93"/>
+      <c r="R62" s="93"/>
+      <c r="S62" s="93"/>
+      <c r="T62" s="93"/>
+      <c r="U62" s="93"/>
+      <c r="V62" s="93"/>
+      <c r="W62" s="93"/>
+      <c r="X62" s="93"/>
+      <c r="Y62" s="93"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="93"/>
+      <c r="AC62" s="93"/>
+      <c r="AD62" s="93"/>
+      <c r="AE62" s="93"/>
+      <c r="AF62" s="93"/>
+      <c r="AG62" s="93"/>
+      <c r="AH62" s="93"/>
+      <c r="AI62" s="93"/>
+      <c r="AJ62" s="93"/>
+      <c r="AK62" s="93"/>
+      <c r="AL62" s="93"/>
+      <c r="AM62" s="93"/>
+      <c r="AN62" s="93"/>
+      <c r="AO62" s="94"/>
     </row>
     <row r="63" spans="1:52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="134"/>
-      <c r="B63" s="135"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
-      <c r="N63" s="135"/>
-      <c r="O63" s="135"/>
-      <c r="P63" s="135"/>
-      <c r="Q63" s="135"/>
-      <c r="R63" s="135"/>
-      <c r="S63" s="135"/>
-      <c r="T63" s="135"/>
-      <c r="U63" s="135"/>
-      <c r="V63" s="135"/>
-      <c r="W63" s="135"/>
-      <c r="X63" s="135"/>
-      <c r="Y63" s="135"/>
-      <c r="Z63" s="135"/>
-      <c r="AA63" s="135"/>
-      <c r="AB63" s="135"/>
-      <c r="AC63" s="135"/>
-      <c r="AD63" s="135"/>
-      <c r="AE63" s="135"/>
-      <c r="AF63" s="135"/>
-      <c r="AG63" s="135"/>
-      <c r="AH63" s="135"/>
-      <c r="AI63" s="135"/>
-      <c r="AJ63" s="135"/>
-      <c r="AK63" s="135"/>
-      <c r="AL63" s="135"/>
-      <c r="AM63" s="135"/>
-      <c r="AN63" s="135"/>
-      <c r="AO63" s="136"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="93"/>
+      <c r="F63" s="93"/>
+      <c r="G63" s="93"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="93"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="93"/>
+      <c r="Q63" s="93"/>
+      <c r="R63" s="93"/>
+      <c r="S63" s="93"/>
+      <c r="T63" s="93"/>
+      <c r="U63" s="93"/>
+      <c r="V63" s="93"/>
+      <c r="W63" s="93"/>
+      <c r="X63" s="93"/>
+      <c r="Y63" s="93"/>
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="93"/>
+      <c r="AB63" s="93"/>
+      <c r="AC63" s="93"/>
+      <c r="AD63" s="93"/>
+      <c r="AE63" s="93"/>
+      <c r="AF63" s="93"/>
+      <c r="AG63" s="93"/>
+      <c r="AH63" s="93"/>
+      <c r="AI63" s="93"/>
+      <c r="AJ63" s="93"/>
+      <c r="AK63" s="93"/>
+      <c r="AL63" s="93"/>
+      <c r="AM63" s="93"/>
+      <c r="AN63" s="93"/>
+      <c r="AO63" s="94"/>
     </row>
     <row r="64" spans="1:52" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="137"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="138"/>
-      <c r="E64" s="138"/>
-      <c r="F64" s="138"/>
-      <c r="G64" s="138"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="138"/>
-      <c r="J64" s="138"/>
-      <c r="K64" s="138"/>
-      <c r="L64" s="138"/>
-      <c r="M64" s="138"/>
-      <c r="N64" s="138"/>
-      <c r="O64" s="138"/>
-      <c r="P64" s="138"/>
-      <c r="Q64" s="138"/>
-      <c r="R64" s="138"/>
-      <c r="S64" s="138"/>
-      <c r="T64" s="138"/>
-      <c r="U64" s="138"/>
-      <c r="V64" s="138"/>
-      <c r="W64" s="138"/>
-      <c r="X64" s="138"/>
-      <c r="Y64" s="138"/>
-      <c r="Z64" s="138"/>
-      <c r="AA64" s="138"/>
-      <c r="AB64" s="138"/>
-      <c r="AC64" s="138"/>
-      <c r="AD64" s="138"/>
-      <c r="AE64" s="138"/>
-      <c r="AF64" s="138"/>
-      <c r="AG64" s="138"/>
-      <c r="AH64" s="138"/>
-      <c r="AI64" s="138"/>
-      <c r="AJ64" s="138"/>
-      <c r="AK64" s="138"/>
-      <c r="AL64" s="138"/>
-      <c r="AM64" s="138"/>
-      <c r="AN64" s="138"/>
-      <c r="AO64" s="139"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
+      <c r="H64" s="96"/>
+      <c r="I64" s="96"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
+      <c r="L64" s="96"/>
+      <c r="M64" s="96"/>
+      <c r="N64" s="96"/>
+      <c r="O64" s="96"/>
+      <c r="P64" s="96"/>
+      <c r="Q64" s="96"/>
+      <c r="R64" s="96"/>
+      <c r="S64" s="96"/>
+      <c r="T64" s="96"/>
+      <c r="U64" s="96"/>
+      <c r="V64" s="96"/>
+      <c r="W64" s="96"/>
+      <c r="X64" s="96"/>
+      <c r="Y64" s="96"/>
+      <c r="Z64" s="96"/>
+      <c r="AA64" s="96"/>
+      <c r="AB64" s="96"/>
+      <c r="AC64" s="96"/>
+      <c r="AD64" s="96"/>
+      <c r="AE64" s="96"/>
+      <c r="AF64" s="96"/>
+      <c r="AG64" s="96"/>
+      <c r="AH64" s="96"/>
+      <c r="AI64" s="96"/>
+      <c r="AJ64" s="96"/>
+      <c r="AK64" s="96"/>
+      <c r="AL64" s="96"/>
+      <c r="AM64" s="96"/>
+      <c r="AN64" s="96"/>
+      <c r="AO64" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="K13:U13"/>
-    <mergeCell ref="V13:AF13"/>
-    <mergeCell ref="AG13:AO13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:U14"/>
-    <mergeCell ref="V14:AF14"/>
-    <mergeCell ref="AG14:AO14"/>
-    <mergeCell ref="A1:AF8"/>
-    <mergeCell ref="AG1:AO8"/>
-    <mergeCell ref="AG9:AO9"/>
-    <mergeCell ref="N9:AF9"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:AO10"/>
-    <mergeCell ref="A11:AO11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="K12:U12"/>
-    <mergeCell ref="V12:AF12"/>
-    <mergeCell ref="AG12:AO12"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="A26:AH26"/>
+    <mergeCell ref="M35:AG36"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="A34:AO34"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:U29"/>
+    <mergeCell ref="V29:AE29"/>
+    <mergeCell ref="AF29:AO29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:U30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:U31"/>
+    <mergeCell ref="V31:AE31"/>
+    <mergeCell ref="AF31:AO31"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:U55"/>
+    <mergeCell ref="V55:AE55"/>
+    <mergeCell ref="AF55:AO55"/>
+    <mergeCell ref="A41:I43"/>
+    <mergeCell ref="J35:L37"/>
+    <mergeCell ref="J38:L40"/>
+    <mergeCell ref="J41:L43"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="F46:L46"/>
+    <mergeCell ref="Z46:AJ46"/>
+    <mergeCell ref="A35:I37"/>
+    <mergeCell ref="M46:S46"/>
+    <mergeCell ref="X50:AO50"/>
+    <mergeCell ref="X51:AO51"/>
+    <mergeCell ref="X52:AO52"/>
+    <mergeCell ref="X53:AO53"/>
+    <mergeCell ref="A49:W49"/>
+    <mergeCell ref="A50:W50"/>
+    <mergeCell ref="A51:W51"/>
+    <mergeCell ref="A52:W52"/>
+    <mergeCell ref="A53:W53"/>
+    <mergeCell ref="X49:AO49"/>
+    <mergeCell ref="A48:AO48"/>
+    <mergeCell ref="A54:AO54"/>
+    <mergeCell ref="V30:AE30"/>
+    <mergeCell ref="AF30:AO30"/>
+    <mergeCell ref="A38:I40"/>
+    <mergeCell ref="AI23:AK23"/>
+    <mergeCell ref="AI24:AK24"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:W23"/>
+    <mergeCell ref="X23:AD23"/>
+    <mergeCell ref="X24:AD24"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="A33:AO33"/>
+    <mergeCell ref="AK46:AO46"/>
+    <mergeCell ref="A47:AO47"/>
+    <mergeCell ref="AH35:AO36"/>
+    <mergeCell ref="A45:AO45"/>
+    <mergeCell ref="A44:AO44"/>
+    <mergeCell ref="AI25:AK25"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="M40:AG40"/>
+    <mergeCell ref="M38:AG39"/>
+    <mergeCell ref="AH38:AO39"/>
+    <mergeCell ref="M37:AG37"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="M41:AG42"/>
+    <mergeCell ref="AH41:AO42"/>
+    <mergeCell ref="M43:AG43"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="X25:AD25"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AE24:AH24"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="A32:AO32"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="AL23:AO23"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AI19:AO19"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="AI20:AK20"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="AI21:AK21"/>
+    <mergeCell ref="AI22:AK22"/>
+    <mergeCell ref="A60:AO64"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:U56"/>
+    <mergeCell ref="V56:AE56"/>
+    <mergeCell ref="AF56:AO56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:U57"/>
+    <mergeCell ref="V57:AE57"/>
+    <mergeCell ref="AF57:AO57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:U58"/>
+    <mergeCell ref="V58:AE58"/>
+    <mergeCell ref="AF58:AO58"/>
+    <mergeCell ref="A59:AO59"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="K15:U15"/>
     <mergeCell ref="V15:AF15"/>
@@ -6417,108 +6521,25 @@
     <mergeCell ref="X19:AD20"/>
     <mergeCell ref="X21:AD21"/>
     <mergeCell ref="X22:AD22"/>
-    <mergeCell ref="A60:AO64"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:U56"/>
-    <mergeCell ref="V56:AE56"/>
-    <mergeCell ref="AF56:AO56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:U57"/>
-    <mergeCell ref="V57:AE57"/>
-    <mergeCell ref="AF57:AO57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:U58"/>
-    <mergeCell ref="V58:AE58"/>
-    <mergeCell ref="AF58:AO58"/>
-    <mergeCell ref="A59:AO59"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="M41:AG42"/>
-    <mergeCell ref="AH41:AO42"/>
-    <mergeCell ref="M43:AG43"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="X25:AD25"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AE24:AH24"/>
-    <mergeCell ref="AE25:AH25"/>
-    <mergeCell ref="A32:AO32"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="AL23:AO23"/>
-    <mergeCell ref="AL24:AO24"/>
-    <mergeCell ref="AI19:AO19"/>
-    <mergeCell ref="AL20:AO20"/>
-    <mergeCell ref="AI20:AK20"/>
-    <mergeCell ref="AL21:AO21"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:J20"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="AI21:AK21"/>
-    <mergeCell ref="AI22:AK22"/>
-    <mergeCell ref="A54:AO54"/>
-    <mergeCell ref="V30:AE30"/>
-    <mergeCell ref="AF30:AO30"/>
-    <mergeCell ref="A38:I40"/>
-    <mergeCell ref="AI23:AK23"/>
-    <mergeCell ref="AI24:AK24"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:W23"/>
-    <mergeCell ref="X23:AD23"/>
-    <mergeCell ref="X24:AD24"/>
-    <mergeCell ref="AL25:AO25"/>
-    <mergeCell ref="AL26:AO26"/>
-    <mergeCell ref="A33:AO33"/>
-    <mergeCell ref="AK46:AO46"/>
-    <mergeCell ref="A47:AO47"/>
-    <mergeCell ref="AH35:AO36"/>
-    <mergeCell ref="A45:AO45"/>
-    <mergeCell ref="A44:AO44"/>
-    <mergeCell ref="AI25:AK25"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="M40:AG40"/>
-    <mergeCell ref="M38:AG39"/>
-    <mergeCell ref="AH38:AO39"/>
-    <mergeCell ref="M37:AG37"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:U55"/>
-    <mergeCell ref="V55:AE55"/>
-    <mergeCell ref="AF55:AO55"/>
-    <mergeCell ref="A41:I43"/>
-    <mergeCell ref="J35:L37"/>
-    <mergeCell ref="J38:L40"/>
-    <mergeCell ref="J41:L43"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="F46:L46"/>
-    <mergeCell ref="Z46:AJ46"/>
-    <mergeCell ref="A35:I37"/>
-    <mergeCell ref="M46:S46"/>
-    <mergeCell ref="X50:AO50"/>
-    <mergeCell ref="X51:AO51"/>
-    <mergeCell ref="X52:AO52"/>
-    <mergeCell ref="X53:AO53"/>
-    <mergeCell ref="A49:W49"/>
-    <mergeCell ref="A50:W50"/>
-    <mergeCell ref="A51:W51"/>
-    <mergeCell ref="A52:W52"/>
-    <mergeCell ref="A53:W53"/>
-    <mergeCell ref="X49:AO49"/>
-    <mergeCell ref="A48:AO48"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="A26:AH26"/>
-    <mergeCell ref="M35:AG36"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="A34:AO34"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:U29"/>
-    <mergeCell ref="V29:AE29"/>
-    <mergeCell ref="AF29:AO29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:U30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:U31"/>
-    <mergeCell ref="V31:AE31"/>
-    <mergeCell ref="AF31:AO31"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="K13:U13"/>
+    <mergeCell ref="V13:AF13"/>
+    <mergeCell ref="AG13:AO13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:U14"/>
+    <mergeCell ref="V14:AF14"/>
+    <mergeCell ref="AG14:AO14"/>
+    <mergeCell ref="A1:AF8"/>
+    <mergeCell ref="AG1:AO8"/>
+    <mergeCell ref="AG9:AO9"/>
+    <mergeCell ref="N9:AF9"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:AO10"/>
+    <mergeCell ref="A11:AO11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="K12:U12"/>
+    <mergeCell ref="V12:AF12"/>
+    <mergeCell ref="AG12:AO12"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A33" xr:uid="{00000000-0002-0000-0000-000000000000}">
